--- a/Win32/Binaries/Table/giftshop.xlsx
+++ b/Win32/Binaries/Table/giftshop.xlsx
@@ -11,12 +11,12 @@
     <sheet name="辅助表" sheetId="3" r:id="rId2"/>
     <sheet name="注释" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="147">
   <si>
     <t>资格参数1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -464,11 +464,85 @@
     <t>(8,10008,100)</t>
   </si>
   <si>
-    <t>(12,1003,2);(12,2003,2);(12,3003,2);(12,4003,2);(12,5003,2);(12,6003,2);(120,4,2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(8,8,100);(80,4,10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初露头角礼包</t>
+  </si>
+  <si>
+    <t>无坚不摧礼包</t>
+  </si>
+  <si>
+    <t>所向无敌礼包</t>
+  </si>
+  <si>
+    <t>每日玉器礼包</t>
+  </si>
+  <si>
+    <t>周五大礼包</t>
+  </si>
+  <si>
+    <t>周六大礼包</t>
+  </si>
+  <si>
+    <t>(12,1003,2);(12,2003,2);(12,3003,2);(12,4003,2);(12,5003,2);(12,6003,2);(120,4,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1,1,200000);(1,6,2000);(7,11,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1,1,1000000);(1,6,10000);(7,11,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1,1,1000000);(1,6,10000);(1,2,300);(7,11,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1,1,50000);(1,6,500);(11,1,10);(12,1001,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1,1,100000);(1,6,1000);(11,1,20);(12,2002,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1,1,500000);(1,6,5000);(11,1,30);(12,3005,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1,1,1000000);(1,6,10000);(12,1008,1);(12,2008,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1,1,1000000);(1,6,10000);(12,4006,1);(12,5006,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1,1,1000000);(1,6,10000);(12,1007,1);(12,6007,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1,1,1000000);(1,6,10000);(12,3008,2);(7,53,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1,1,1000000);(1,6,10000);(12,4009,2);(7,53,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1,1,1000000);(1,6,10000);(12,5010,2);(7,53,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1,1,1000000);(1,6,10000);(12,6010,2);(7,53,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1,1,1000000);(1,6,10000);(12,1010,2);(7,53,1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,7 +553,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -494,8 +568,25 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -508,6 +599,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -518,10 +614,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -529,9 +628,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -833,10 +935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -992,10 +1094,10 @@
         <v>2</v>
       </c>
       <c r="K3">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="L3" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -1033,10 +1135,10 @@
         <v>2</v>
       </c>
       <c r="K4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="L4" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -1074,10 +1176,10 @@
         <v>2</v>
       </c>
       <c r="K5">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="L5" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -1115,10 +1217,10 @@
         <v>2</v>
       </c>
       <c r="K6">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="L6" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1156,10 +1258,10 @@
         <v>2</v>
       </c>
       <c r="K7">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L7" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1197,10 +1299,10 @@
         <v>2</v>
       </c>
       <c r="K8">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L8" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1238,10 +1340,10 @@
         <v>2</v>
       </c>
       <c r="K9">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1279,10 +1381,10 @@
         <v>2</v>
       </c>
       <c r="K10">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="L10" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -1320,10 +1422,10 @@
         <v>2</v>
       </c>
       <c r="K11">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="L11" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1361,10 +1463,10 @@
         <v>2</v>
       </c>
       <c r="K12">
-        <v>1300</v>
-      </c>
-      <c r="L12" t="s">
-        <v>110</v>
+        <v>1000</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1402,10 +1504,10 @@
         <v>2</v>
       </c>
       <c r="K13">
-        <v>1400</v>
-      </c>
-      <c r="L13" t="s">
-        <v>111</v>
+        <v>1500</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -1443,10 +1545,10 @@
         <v>2</v>
       </c>
       <c r="K14">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L14" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1484,10 +1586,10 @@
         <v>2</v>
       </c>
       <c r="K15">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="L15" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1525,567 +1627,14 @@
         <v>2</v>
       </c>
       <c r="K16">
-        <v>1700</v>
+        <v>3000</v>
       </c>
       <c r="L16" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17">
-        <v>9115</v>
-      </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>15</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>2</v>
-      </c>
-      <c r="K17">
-        <v>1800</v>
-      </c>
-      <c r="L17" t="s">
-        <v>115</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18">
-        <v>9201</v>
-      </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
-      <c r="H18">
-        <v>10</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>2</v>
-      </c>
-      <c r="K18">
-        <v>600</v>
-      </c>
-      <c r="L18" t="s">
-        <v>116</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>1462464000</v>
-      </c>
-      <c r="P18">
-        <v>1465142400</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19">
-        <v>9202</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-      <c r="H19">
-        <v>30</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>2</v>
-      </c>
-      <c r="K19">
-        <v>800</v>
-      </c>
-      <c r="L19" t="s">
-        <v>117</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20">
-        <v>9203</v>
-      </c>
-      <c r="D20">
-        <v>4</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-      <c r="H20">
-        <v>50</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>2</v>
-      </c>
-      <c r="K20">
-        <v>1000</v>
-      </c>
-      <c r="L20" t="s">
-        <v>118</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21">
-        <v>9204</v>
-      </c>
-      <c r="D21">
-        <v>4</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-      <c r="H21">
-        <v>70</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>2</v>
-      </c>
-      <c r="K21">
-        <v>1200</v>
-      </c>
-      <c r="L21" t="s">
-        <v>119</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22">
-        <v>9301</v>
-      </c>
-      <c r="D22">
-        <v>4</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>3</v>
-      </c>
-      <c r="H22">
-        <v>10000</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>2</v>
-      </c>
-      <c r="K22">
-        <v>600</v>
-      </c>
-      <c r="L22" t="s">
-        <v>116</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23">
-        <v>9302</v>
-      </c>
-      <c r="D23">
-        <v>4</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>3</v>
-      </c>
-      <c r="H23">
-        <v>50000</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <v>2</v>
-      </c>
-      <c r="K23">
-        <v>800</v>
-      </c>
-      <c r="L23" t="s">
-        <v>117</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24">
-        <v>9303</v>
-      </c>
-      <c r="D24">
-        <v>4</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>3</v>
-      </c>
-      <c r="H24">
-        <v>100000</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>2</v>
-      </c>
-      <c r="K24">
-        <v>1000</v>
-      </c>
-      <c r="L24" t="s">
-        <v>118</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25">
-        <v>9401</v>
-      </c>
-      <c r="D25">
-        <v>4</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>2</v>
-      </c>
-      <c r="K25">
-        <v>200</v>
-      </c>
-      <c r="L25" t="s">
-        <v>125</v>
-      </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-      <c r="N25" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26">
-        <v>9402</v>
-      </c>
-      <c r="D26">
-        <v>4</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>2</v>
-      </c>
-      <c r="K26">
-        <v>300</v>
-      </c>
-      <c r="L26" t="s">
-        <v>121</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="N26" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27">
-        <v>9501</v>
-      </c>
-      <c r="D27">
-        <v>4</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>2</v>
-      </c>
-      <c r="K27">
-        <v>450</v>
-      </c>
-      <c r="L27" t="s">
-        <v>122</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28">
-        <v>9502</v>
-      </c>
-      <c r="D28">
-        <v>4</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <v>2</v>
-      </c>
-      <c r="K28">
-        <v>450</v>
-      </c>
-      <c r="L28" t="s">
-        <v>123</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A29">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29">
-        <v>9503</v>
-      </c>
-      <c r="D29">
-        <v>4</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <v>2</v>
-      </c>
-      <c r="K29">
-        <v>2000</v>
-      </c>
-      <c r="L29" t="s">
-        <v>126</v>
-      </c>
-      <c r="M29">
-        <v>1</v>
-      </c>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2096,10 +1645,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3515,6 +3064,516 @@
       </c>
       <c r="R29">
         <v>-2209190400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="5">
+        <v>16</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="5">
+        <v>9201</v>
+      </c>
+      <c r="D32" s="5">
+        <v>4</v>
+      </c>
+      <c r="E32" s="5">
+        <v>1</v>
+      </c>
+      <c r="F32" s="5">
+        <v>1</v>
+      </c>
+      <c r="G32" s="5">
+        <v>2</v>
+      </c>
+      <c r="H32" s="5">
+        <v>10</v>
+      </c>
+      <c r="I32" s="5">
+        <v>1</v>
+      </c>
+      <c r="J32" s="5">
+        <v>2</v>
+      </c>
+      <c r="K32" s="5">
+        <v>600</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="M32" s="5">
+        <v>0</v>
+      </c>
+      <c r="O32" s="5">
+        <v>1462464000</v>
+      </c>
+      <c r="P32" s="5">
+        <v>1465142400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="5">
+        <v>17</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="5">
+        <v>9202</v>
+      </c>
+      <c r="D33" s="5">
+        <v>4</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1</v>
+      </c>
+      <c r="F33" s="5">
+        <v>1</v>
+      </c>
+      <c r="G33" s="5">
+        <v>2</v>
+      </c>
+      <c r="H33" s="5">
+        <v>30</v>
+      </c>
+      <c r="I33" s="5">
+        <v>1</v>
+      </c>
+      <c r="J33" s="5">
+        <v>2</v>
+      </c>
+      <c r="K33" s="5">
+        <v>800</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="M33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="5">
+        <v>18</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="5">
+        <v>9203</v>
+      </c>
+      <c r="D34" s="5">
+        <v>4</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1</v>
+      </c>
+      <c r="F34" s="5">
+        <v>1</v>
+      </c>
+      <c r="G34" s="5">
+        <v>2</v>
+      </c>
+      <c r="H34" s="5">
+        <v>50</v>
+      </c>
+      <c r="I34" s="5">
+        <v>1</v>
+      </c>
+      <c r="J34" s="5">
+        <v>2</v>
+      </c>
+      <c r="K34" s="5">
+        <v>1000</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="5">
+        <v>19</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="5">
+        <v>9204</v>
+      </c>
+      <c r="D35" s="5">
+        <v>4</v>
+      </c>
+      <c r="E35" s="5">
+        <v>1</v>
+      </c>
+      <c r="F35" s="5">
+        <v>1</v>
+      </c>
+      <c r="G35" s="5">
+        <v>2</v>
+      </c>
+      <c r="H35" s="5">
+        <v>70</v>
+      </c>
+      <c r="I35" s="5">
+        <v>1</v>
+      </c>
+      <c r="J35" s="5">
+        <v>2</v>
+      </c>
+      <c r="K35" s="5">
+        <v>1200</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="M35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="5">
+        <v>20</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" s="5">
+        <v>9301</v>
+      </c>
+      <c r="D36" s="5">
+        <v>4</v>
+      </c>
+      <c r="E36" s="5">
+        <v>1</v>
+      </c>
+      <c r="F36" s="5">
+        <v>1</v>
+      </c>
+      <c r="G36" s="5">
+        <v>3</v>
+      </c>
+      <c r="H36" s="5">
+        <v>10000</v>
+      </c>
+      <c r="I36" s="5">
+        <v>1</v>
+      </c>
+      <c r="J36" s="5">
+        <v>2</v>
+      </c>
+      <c r="K36" s="5">
+        <v>600</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="M36" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="5">
+        <v>21</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" s="5">
+        <v>9302</v>
+      </c>
+      <c r="D37" s="5">
+        <v>4</v>
+      </c>
+      <c r="E37" s="5">
+        <v>1</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1</v>
+      </c>
+      <c r="G37" s="5">
+        <v>3</v>
+      </c>
+      <c r="H37" s="5">
+        <v>50000</v>
+      </c>
+      <c r="I37" s="5">
+        <v>1</v>
+      </c>
+      <c r="J37" s="5">
+        <v>2</v>
+      </c>
+      <c r="K37" s="5">
+        <v>800</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="M37" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="5">
+        <v>22</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" s="5">
+        <v>9303</v>
+      </c>
+      <c r="D38" s="5">
+        <v>4</v>
+      </c>
+      <c r="E38" s="5">
+        <v>1</v>
+      </c>
+      <c r="F38" s="5">
+        <v>1</v>
+      </c>
+      <c r="G38" s="5">
+        <v>3</v>
+      </c>
+      <c r="H38" s="5">
+        <v>100000</v>
+      </c>
+      <c r="I38" s="5">
+        <v>1</v>
+      </c>
+      <c r="J38" s="5">
+        <v>2</v>
+      </c>
+      <c r="K38" s="5">
+        <v>1000</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M38" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="5">
+        <v>23</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="5">
+        <v>9401</v>
+      </c>
+      <c r="D39" s="5">
+        <v>4</v>
+      </c>
+      <c r="E39" s="5">
+        <v>2</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0</v>
+      </c>
+      <c r="H39" s="5">
+        <v>0</v>
+      </c>
+      <c r="I39" s="5">
+        <v>1</v>
+      </c>
+      <c r="J39" s="5">
+        <v>2</v>
+      </c>
+      <c r="K39" s="5">
+        <v>200</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="M39" s="5">
+        <v>1</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="5">
+        <v>24</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="5">
+        <v>9402</v>
+      </c>
+      <c r="D40" s="5">
+        <v>4</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0</v>
+      </c>
+      <c r="H40" s="5">
+        <v>0</v>
+      </c>
+      <c r="I40" s="5">
+        <v>1</v>
+      </c>
+      <c r="J40" s="5">
+        <v>2</v>
+      </c>
+      <c r="K40" s="5">
+        <v>300</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M40" s="5">
+        <v>1</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="5">
+        <v>25</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="5">
+        <v>9501</v>
+      </c>
+      <c r="D41" s="5">
+        <v>4</v>
+      </c>
+      <c r="E41" s="5">
+        <v>1</v>
+      </c>
+      <c r="F41" s="5">
+        <v>1</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0</v>
+      </c>
+      <c r="H41" s="5">
+        <v>0</v>
+      </c>
+      <c r="I41" s="5">
+        <v>1</v>
+      </c>
+      <c r="J41" s="5">
+        <v>2</v>
+      </c>
+      <c r="K41" s="5">
+        <v>450</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M41" s="5">
+        <v>0</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="5">
+        <v>26</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" s="5">
+        <v>9502</v>
+      </c>
+      <c r="D42" s="5">
+        <v>4</v>
+      </c>
+      <c r="E42" s="5">
+        <v>1</v>
+      </c>
+      <c r="F42" s="5">
+        <v>1</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0</v>
+      </c>
+      <c r="H42" s="5">
+        <v>0</v>
+      </c>
+      <c r="I42" s="5">
+        <v>1</v>
+      </c>
+      <c r="J42" s="5">
+        <v>2</v>
+      </c>
+      <c r="K42" s="5">
+        <v>450</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="M42" s="5">
+        <v>0</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="5">
+        <v>27</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="5">
+        <v>9503</v>
+      </c>
+      <c r="D43" s="5">
+        <v>4</v>
+      </c>
+      <c r="E43" s="5">
+        <v>1</v>
+      </c>
+      <c r="F43" s="5">
+        <v>1</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0</v>
+      </c>
+      <c r="H43" s="5">
+        <v>0</v>
+      </c>
+      <c r="I43" s="5">
+        <v>1</v>
+      </c>
+      <c r="J43" s="5">
+        <v>2</v>
+      </c>
+      <c r="K43" s="5">
+        <v>2000</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="M43" s="5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
